--- a/customers.xlsx
+++ b/customers.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="customers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -44,34 +41,43 @@
     <t>lulu@gmail.com</t>
   </si>
   <si>
-    <t>+344 453546604</t>
-  </si>
-  <si>
     <t>Face Group Ltd.</t>
   </si>
   <si>
     <t>facegroup@gmail.com</t>
   </si>
   <si>
-    <t>+533 546356567</t>
-  </si>
-  <si>
     <t>Cucumber Light Co.</t>
   </si>
   <si>
     <t>cucumlight@gmail.com</t>
   </si>
   <si>
-    <t>+899 346464664</t>
-  </si>
-  <si>
     <t>Midsummer Night Ltd.</t>
   </si>
   <si>
     <t>midsumnight@gmail.com</t>
   </si>
   <si>
-    <t>+677 856756756</t>
+    <t>Evergreen Days Ltd.</t>
+  </si>
+  <si>
+    <t>evergreendays@evergreen.com</t>
+  </si>
+  <si>
+    <t>+344 4535466</t>
+  </si>
+  <si>
+    <t>+533 5463565</t>
+  </si>
+  <si>
+    <t>+899 3464646</t>
+  </si>
+  <si>
+    <t>+677 8567567</t>
+  </si>
+  <si>
+    <t>+576 9787986</t>
   </si>
 </sst>
 </file>
@@ -124,14 +130,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -417,94 +417,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
